--- a/data/trans_orig/Q33-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q33-Provincia-trans_orig.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>7,07</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,19; 7,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,29</t>
+          <t>7,04; 7,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,84; 7,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,83; 7,04</t>
+          <t>6,84; 7,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,06; 7,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,12</t>
+          <t>6,97; 7,18</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,41</t>
+          <t>7,15; 7,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,37</t>
+          <t>7,21; 7,38</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,02</t>
+          <t>7,03</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,97; 7,22</t>
+          <t>6,98; 7,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,1</t>
+          <t>6,94; 7,11</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,91</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,35</t>
+          <t>7,02; 7,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 7,24</t>
+          <t>6,92; 7,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 7,03</t>
+          <t>6,66; 6,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 7,09</t>
+          <t>6,85; 7,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,16</t>
+          <t>6,87; 7,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 7,12</t>
+          <t>6,93; 7,11</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>6,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 6,68</t>
+          <t>6,47; 6,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,6; 6,76</t>
+          <t>6,59; 6,75</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>6,94</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,9; 7,14</t>
+          <t>6,91; 7,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,84; 7,02</t>
+          <t>6,85; 7,02</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>6,81</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,88; 7,08</t>
+          <t>6,87; 7,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,49; 6,94</t>
+          <t>6,34; 6,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,65; 6,97</t>
+          <t>6,5; 6,96</t>
         </is>
       </c>
     </row>
@@ -1651,34 +1651,34 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>7,86</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7,6</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7,3</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7,34</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7,35</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>7,55</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>7,6</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>7,3</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>7,34</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>7,36</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>7,55</t>
-        </is>
-      </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
           <t>7,39</t>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>7,64</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,85</t>
+          <t>7,43; 8,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,41</t>
+          <t>7,29; 7,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,61</t>
+          <t>7,39; 8,2</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,02</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>7,13</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,31</t>
+          <t>7,15; 7,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,9; 7,07</t>
+          <t>6,78; 7,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,05; 7,15</t>
+          <t>7,04; 7,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q33-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q33-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,42 +724,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,56; 7,81</t>
+          <t>7,55; 7,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,52</t>
+          <t>7,19; 7,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,33</t>
+          <t>7,03; 7,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,04; 7,37</t>
+          <t>7,02; 7,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,59</t>
+          <t>7,3; 7,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 7,19</t>
+          <t>6,84; 7,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 7,19</t>
+          <t>6,84; 7,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 7,05</t>
+          <t>6,82; 7,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,24 +769,24 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,31</t>
+          <t>7,05; 7,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,22</t>
+          <t>6,99; 7,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,97; 7,18</t>
+          <t>6,98; 7,18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,59</t>
+          <t>7,32; 7,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,52</t>
+          <t>7,3; 7,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,22 +884,22 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,31</t>
+          <t>7,05; 7,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,43</t>
+          <t>7,17; 7,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,19</t>
+          <t>6,97; 7,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,39</t>
+          <t>7,17; 7,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 7,45</t>
+          <t>7,28; 7,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,38</t>
+          <t>7,2; 7,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,42 +1004,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,54; 7,76</t>
+          <t>7,54; 7,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,62</t>
+          <t>7,31; 7,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,51</t>
+          <t>7,34; 7,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,24</t>
+          <t>6,99; 7,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,42</t>
+          <t>7,18; 7,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,42</t>
+          <t>7,13; 7,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,35</t>
+          <t>7,14; 7,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 7,06</t>
+          <t>6,82; 7,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,47</t>
+          <t>7,25; 7,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,11</t>
+          <t>6,95; 7,12</t>
         </is>
       </c>
     </row>
@@ -1144,42 +1144,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,55</t>
+          <t>7,32; 7,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,3</t>
+          <t>7,01; 7,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,31</t>
+          <t>7,01; 7,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 7,26</t>
+          <t>6,94; 7,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,47</t>
+          <t>7,26; 7,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,66; 6,97</t>
+          <t>6,67; 6,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 7,14</t>
+          <t>6,81; 7,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,07</t>
+          <t>6,84; 7,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,09</t>
+          <t>6,89; 7,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,97; 7,18</t>
+          <t>6,96; 7,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,57 +1284,57 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,78</t>
+          <t>7,42; 7,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,52</t>
+          <t>7,18; 7,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,65</t>
+          <t>7,43; 7,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,69; 6,92</t>
+          <t>6,68; 6,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,41; 7,78</t>
+          <t>7,43; 7,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,88; 7,25</t>
+          <t>6,87; 7,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,47; 7,68</t>
+          <t>7,46; 7,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 6,67</t>
+          <t>6,47; 6,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,49; 7,74</t>
+          <t>7,48; 7,72</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,07; 7,33</t>
+          <t>7,08; 7,33</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 7,63</t>
+          <t>7,47; 7,63</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,49; 7,7</t>
+          <t>7,48; 7,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,53</t>
+          <t>7,25; 7,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,65</t>
+          <t>7,37; 7,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,91; 7,15</t>
+          <t>6,92; 7,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,1; 7,35</t>
+          <t>7,1; 7,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,37</t>
+          <t>7,07; 7,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,32</t>
+          <t>7,0; 7,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,71; 6,96</t>
+          <t>6,71; 6,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,5</t>
+          <t>7,33; 7,51</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,41</t>
+          <t>7,2; 7,41</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,44</t>
+          <t>7,22; 7,45</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,02</t>
+          <t>6,86; 7,03</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,27 +1564,27 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,68</t>
+          <t>7,52; 7,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,28; 7,46</t>
+          <t>7,27; 7,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,55; 7,77</t>
+          <t>7,54; 7,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,09</t>
+          <t>6,87; 7,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,24; 7,43</t>
+          <t>7,25; 7,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1594,12 +1594,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,54</t>
+          <t>7,34; 7,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,34; 6,93</t>
+          <t>6,33; 6,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,35</t>
+          <t>7,23; 7,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,5; 6,96</t>
+          <t>6,53; 6,96</t>
         </is>
       </c>
     </row>
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,42; 7,58</t>
+          <t>7,43; 7,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,4; 7,58</t>
+          <t>7,41; 7,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,17 +1719,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,43; 8,46</t>
+          <t>7,44; 8,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,5; 7,69</t>
+          <t>7,5; 7,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,37</t>
+          <t>7,21; 7,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1744,12 +1744,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,49; 7,61</t>
+          <t>7,49; 7,62</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,45</t>
+          <t>7,33; 7,46</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,39; 8,2</t>
+          <t>7,39; 8,16</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,44</t>
+          <t>7,34; 7,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,78</t>
+          <t>7,15; 7,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,22</t>
+          <t>7,14; 7,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1879,27 +1879,27 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,78; 7,05</t>
+          <t>6,8; 7,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,49</t>
+          <t>7,44; 7,49</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,32</t>
+          <t>7,25; 7,31</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,39</t>
+          <t>7,33; 7,39</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,04; 7,36</t>
+          <t>7,04; 7,34</t>
         </is>
       </c>
     </row>
